--- a/data/financial_time_series_data/financial_time_series_calibrations/gasoil-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/gasoil-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[0.9999999999999999, 0.3553276472537458, 0.37423271585885953, 0.34611964997478506, 0.3309969207201247, 0.5326359553297209, 0.2368135567040445, 0.2865089601775612, 0.24881682912555833, 0.24278092479727223, 0.2365593866234969, 0.2560051413181725, 0.26609868728259417, 0.26125363677036056, 0.2644141950548049, 0.2554330478613364, 0.2702567370995459, 0.257984317486817, 0.24239725625579342, 0.2594317445825669]</t>
+    <t>[1.0, 0.33270968067201345, 0.3522734129625214, 0.32317918370065557, 0.30751957730981044, 0.5162282386426504, 0.2100249284164006, 0.26145819483095534, 0.22241639251953693, 0.21618163908983487, 0.2097338444319448, 0.22983995957359743, 0.24028644478531952, 0.2352689579679485, 0.23853566729011302, 0.229227694674077, 0.24456981283717785, 0.23185946550435874, 0.21572016316242312, 0.23334296872368138]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2496132395429598, 0.2585729672700012, 0.2506433154135142, 0.2742884459058345, 0.2591575891233221, 0.19376720360176852, 0.24944087321288055, 0.4428727961952914, 0.16342556355849783, 0.17811855906865767, 0.17957793119072288, 0.18246828864731185, 0.18095810312601984, 0.19125889001272972, 0.1909099590304588, 0.195060564066415, 0.17915479174560978, 0.16539079747738378, 0.18005887133372744]</t>
+    <t>[1.0, 0.22713785020074373, 0.23608815284083387, 0.22778277363775856, 0.2517036410052569, 0.23455712228321934, 0.16694965644326168, 0.22541545857129625, 0.42322248989927097, 0.1353879206541683, 0.1507457534137788, 0.1523448551243089, 0.15502601645645825, 0.1532892793414035, 0.16346345000181625, 0.16369719356210544, 0.16770462306391942, 0.15173982453601514, 0.13768586539208896, 0.15247465027791424]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.06513375434238612, -0.01980711055681421, -0.05827214397935891, -0.10068588723941647, 0.24856988107129713, -0.02940433367474626, 0.042434838357490866, 0.01990188783168213, -0.048662699059901934, -0.05308250721458003, -0.04125251584685808, -0.005943140784329046, 0.02402931439466217, 0.029767752103395755, 0.008990415062986848, -0.013216093489315427, -0.03028155521658969, -0.02121357023465984, 0.010986958687143805]</t>
+    <t>[1.0, -0.06389447414691769, -0.021975633464639367, -0.05575591567177519, -0.09704706102532343, 0.24467287959117287, -0.028392294169012077, 0.04199393959522337, 0.02389219238773284, -0.044520016612905444, -0.053419806800431444, -0.04249877712043097, -0.0024519557944264435, 0.030206687791300216, 0.02740347105342912, 0.017151476334452184, -0.016246990130471456, -0.022908853398877122, -0.02460583454380923, 0.006163781898280912]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.06312142651013086, -0.019314254328319774, -0.05708749098267565, -0.09872569318153117, 0.25084388916486666, -0.03186587777704987, 0.03943488825536616, 0.01958140386151118, -0.051901662378333956, -0.05441732755173061, -0.042914971688026285, -0.0071381174148804905, 0.023669890353032973, 0.028347663135099777, 0.009729180205473515, -0.013696144258185309, -0.02854269503752412, -0.020767593161104426, 0.012991593365280872]</t>
-  </si>
-  <si>
-    <t>[1.0, -0.03650737820784944, -0.010611948049923785, -0.04509433530172586, -0.06417982208232793, 0.17892813188624873, -0.029930382664932323, 0.027710538132292458, 0.0049449378366295, -0.04581028699707754, -0.03765376879959059, -0.03302576057340954, -0.020180010573364375, 0.028688080273541916, 0.024276982301588108, 0.004453841477271966, -0.00641201002028126, -0.024064093259337924, -0.006323338227974531, 0.010616668139981824]</t>
+    <t>[0.9999999999999999, -0.06165408236972, -0.02102261560184984, -0.05412837581694195, -0.09478804476315274, 0.24764344111519113, -0.030799598786885055, 0.038786089231267334, 0.022953628188991482, -0.04866808902365025, -0.05570819772229042, -0.044411233414498895, -0.0033943978177947247, 0.029564546165195608, 0.0258951925090044, 0.017217190832167495, -0.016745238004780196, -0.021804353575299584, -0.02323154498720819, 0.008421973393838664]</t>
+  </si>
+  <si>
+    <t>[1.0, -0.03593281601307041, -0.010639861439722571, -0.03951461704850044, -0.05710298676966572, 0.17424670563482386, -0.027647724843411707, 0.02627153565433829, 0.006657593043323032, -0.044100236783981464, -0.03754688623655121, -0.03250097729821977, -0.016952587219524567, 0.03712884077282447, 0.01965000872545261, 0.00751816919851212, -0.008385327153204718, -0.020185537453967596, -0.009379488419193392, 0.00645869935094012]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.5563766546867077</v>
+        <v>-0.7105803991164821</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.807236735747859</v>
+        <v>0.8072336039972227</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>50273.93725555871</v>
+        <v>64654.8047545133</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.8871014076414824</v>
+        <v>0.8918518518518519</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-26.42471063668822</v>
+        <v>-34.66827684399614</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.8154475830836955</v>
+        <v>0.8103193911293781</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>68864.52288548498</v>
+        <v>88069.38718990301</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>21.87637821851648</v>
+        <v>30.25273433222138</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.8199746278241326</v>
+        <v>0.8060331275414746</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>18699.2948102584</v>
+        <v>23924.86992146928</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.004186288364563198</v>
+        <v>0.003540348544720932</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1763780335084628</v>
+        <v>0.224553365954934</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1591316249471148</v>
+        <v>0.1664891910778499</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8408874869692663</v>
+        <v>0.8335108089221501</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0736209500890682</v>
+        <v>-0.08574797181727643</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1983957294823123</v>
+        <v>0.2523070119632156</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1063129931391517</v>
+        <v>0.1095130545210253</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8359822180256311</v>
+        <v>0.8282956973118958</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.1154265957425613</v>
+        <v>0.1244339196633769</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.01268571486356276</v>
+        <v>-0.00503610898272411</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1452749995790139</v>
+        <v>0.1775498965660597</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1543710876276106</v>
+        <v>0.1641262696287309</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8506605870344619</v>
+        <v>0.8476452660947248</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.01006333664251436</v>
+        <v>-0.0235005591541813</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.8015384710564387</v>
+        <v>0.7967641922719754</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/gasoil-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/gasoil-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.33270968067201345, 0.3522734129625214, 0.32317918370065557, 0.30751957730981044, 0.5162282386426504, 0.2100249284164006, 0.26145819483095534, 0.22241639251953693, 0.21618163908983487, 0.2097338444319448, 0.22983995957359743, 0.24028644478531952, 0.2352689579679485, 0.23853566729011302, 0.229227694674077, 0.24456981283717785, 0.23185946550435874, 0.21572016316242312, 0.23334296872368138]</t>
+    <t>[0.9999999999999999, 0.027519311876138233, -0.0510786890162894, -0.09506615120389852, -0.1359016308868483, 0.0748412585706099, 0.029298285440112162, 0.05585394029129564, 0.025298370041328528, -0.0300446661980944, -0.028319987521129998, -0.06437384264461887, 0.003492010995920257, 0.04470859488424577, 0.06553932197021563, 0.029596804916165165, -0.02486665766923546, -0.050434194654770365, -0.04090466237308027, 0.011400893517586221]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.22713785020074373, 0.23608815284083387, 0.22778277363775856, 0.2517036410052569, 0.23455712228321934, 0.16694965644326168, 0.22541545857129625, 0.42322248989927097, 0.1353879206541683, 0.1507457534137788, 0.1523448551243089, 0.15502601645645825, 0.1532892793414035, 0.16346345000181625, 0.16369719356210544, 0.16770462306391942, 0.15173982453601514, 0.13768586539208896, 0.15247465027791424]</t>
+    <t>[1.0, 0.05285221498209817, -0.01420217580304059, -0.014710379035803932, -0.02143248630957043, 0.01643521218672918, -0.010207665063015047, 0.0213482407275454, -0.00856893386069431, -0.030367691149575625, -0.004297175689131309, -0.021358863509527592, -0.016861521769549012, -0.000865443254141501, 0.04458572686571549, 0.00786045057787506, -0.005546749481335231, 0.022367006114971232, -0.015106608755289583, 0.007787175937302521]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.06389447414691769, -0.021975633464639367, -0.05575591567177519, -0.09704706102532343, 0.24467287959117287, -0.028392294169012077, 0.04199393959522337, 0.02389219238773284, -0.044520016612905444, -0.053419806800431444, -0.04249877712043097, -0.0024519557944264435, 0.030206687791300216, 0.02740347105342912, 0.017151476334452184, -0.016246990130471456, -0.022908853398877122, -0.02460583454380923, 0.006163781898280912]</t>
+    <t>[1.0, 0.028540450934653808, -0.04253255726384514, -0.08768965618830829, -0.13996844894994742, 0.09175255283912845, 0.02014256668219339, 0.06757728614698867, 0.03202650222886918, -0.031229687706606845, -0.04134583334353597, -0.06302856623731395, 0.008599507863616752, 0.03490754169297713, 0.06963961681611058, 0.02801339035048576, -0.03609694384209265, -0.04369170970762815, -0.05273206232509614, 0.0026995178662624474]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[0.9999999999999999, -0.06165408236972, -0.02102261560184984, -0.05412837581694195, -0.09478804476315274, 0.24764344111519113, -0.030799598786885055, 0.038786089231267334, 0.022953628188991482, -0.04866808902365025, -0.05570819772229042, -0.044411233414498895, -0.0033943978177947247, 0.029564546165195608, 0.0258951925090044, 0.017217190832167495, -0.016745238004780196, -0.021804353575299584, -0.02323154498720819, 0.008421973393838664]</t>
-  </si>
-  <si>
-    <t>[1.0, -0.03593281601307041, -0.010639861439722571, -0.03951461704850044, -0.05710298676966572, 0.17424670563482386, -0.027647724843411707, 0.02627153565433829, 0.006657593043323032, -0.044100236783981464, -0.03754688623655121, -0.03250097729821977, -0.016952587219524567, 0.03712884077282447, 0.01965000872545261, 0.00751816919851212, -0.008385327153204718, -0.020185537453967596, -0.009379488419193392, 0.00645869935094012]</t>
+    <t>[1.0, -0.003927731358294636, -0.03972892414594325, -0.0808667625881799, -0.13698441887718352, 0.09609221935364978, 0.016421197551761052, 0.06777860249973515, 0.03245472545829643, -0.028019236275828325, -0.035634090000457364, -0.05817488322454031, 0.01189164111954234, 0.03506729135024723, 0.06812148640902077, 0.029768608518841323, -0.03292478901786283, -0.03782260469969652, -0.048052073335654075, 0.005582789216852781]</t>
+  </si>
+  <si>
+    <t>[1.0, -0.0007632531981645069, -0.050040660163139544, -0.09069172429952296, -0.13607836214244434, 0.07929928757085285, 0.025879841130390012, 0.05496972443405766, 0.025095690736669594, -0.030799100600430236, -0.025109748421111636, -0.06319761703726988, 0.0025698986699293066, 0.04379026239652982, 0.0627432121610422, 0.02924235230031501, -0.02342059656590508, -0.04809899344282776, -0.039597172199580234, 0.010276307471163648]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.7105803991164821</v>
+        <v>0.006270035935739697</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8072336039972227</v>
+        <v>0.7913659530258792</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>64654.8047545133</v>
+        <v>0.09797099665097854</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-34.66827684399614</v>
+        <v>-0.1736855735702523</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.8103193911293781</v>
+        <v>0.5771728172191997</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>88069.38718990301</v>
+        <v>0.05726102397873654</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>30.25273433222138</v>
+        <v>0.1630749003618141</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.8060331275414746</v>
+        <v>0.6136283770559584</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>23924.86992146928</v>
+        <v>0.05754291918216003</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.003540348544720932</v>
+        <v>0.0001306639538657085</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.224553365954934</v>
+        <v>1.094242180379503E-09</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1664891910778499</v>
+        <v>0.0008793495878507832</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8335108089221501</v>
+        <v>0.9990651578338104</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.08574797181727643</v>
+        <v>-0.0007090862305013981</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.2523070119632156</v>
+        <v>0.1045784134493644</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1095130545210253</v>
+        <v>0.02002084811503992</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8282956973118958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.1244339196633769</v>
+        <v>0.04748264745024922</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.00503610898272411</v>
+        <v>0.006370006642671128</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1775498965660597</v>
+        <v>0.09477549752665887</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1641262696287309</v>
+        <v>0.0112803772086497</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8476452660947248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.0235005591541813</v>
+        <v>0.04179881657550608</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7967641922719754</v>
+        <v>0.7923285543529349</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/gasoil-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/gasoil-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.021504785718702922, -0.04176779280692027, -0.10321857835533567, -0.1420391479527197, 0.08472858844621432, 0.01771568910158212, 0.05032315037108778, 0.019256996381705836, -0.025466524892093494, -0.020108574701787514, -0.050810386146357106, 0.0033656001133138156, 0.03307945631619924, 0.05689855238659482, 0.011405092896340296, -0.017069086122759074, -0.0410854047829743, -0.04053634265212189, 0.01154912848260021]</t>
+    <t>[1.0, 0.3584453424327151, 0.37930025599873984, 0.3510771181268938, 0.335221735811094, 0.5356913162204199, 0.23728150865475217, 0.28725459481259835, 0.24998707665642506, 0.24648087882497297, 0.2402098674124782, 0.25970392829889355, 0.2688381466271559, 0.2638332863759762, 0.2663104083545547, 0.25820451953065354, 0.2749460172287829, 0.26189166406091174, 0.24618896377493396, 0.2625179666369773]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.059382416052221935, -0.020960747986384833, -0.013263605678459522, -0.020925972607155962, 0.027840132517972127, -0.006403468729262275, 0.016843462480290377, -0.011439807060173916, -0.014652963468629186, -3.121270657581941e-05, -0.019807259016163814, -0.015502289567822595, -0.013886400933094383, 0.03757513067076195, 0.015873410274272668, -0.0061439338094774155, 0.010013606673978347, -0.01658383494529328, 0.013691540702577543]</t>
+    <t>[1.0, 0.25213620269477477, 0.26134641640547895, 0.25330501644533654, 0.27716337765534316, 0.2603351933874866, 0.19531207702656486, 0.2522354391607952, 0.44812358600260743, 0.16716026892441188, 0.1813303399939047, 0.1828774983281022, 0.18553762093053155, 0.18446367684638504, 0.19437580594903203, 0.19470646957668575, 0.2000152509090146, 0.18226707284066837, 0.16929983480764305, 0.18403642452132976]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.004990649893967699, -0.02908046788041349, -0.08418793759099955, -0.14888528894838365, 0.10778948055782736, 0.007962328044103923, 0.06388761303284922, 0.029355731566345182, -0.03436993106251515, -0.03333804873972386, -0.04605937085832698, 0.008649532389228314, 0.03077528822983306, 0.06515957375099155, 0.005319790283621696, -0.025762636412842748, -0.03201674077544125, -0.04515267305585782, 0.008129085875128159]</t>
+    <t>[1.0, -0.06769554961986754, -0.021270611760886023, -0.055551138151386056, -0.10134888106358124, 0.2447878613960221, -0.0345535495498049, 0.04343116294860986, 0.021587830889403577, -0.04339030192318453, -0.055010180283633775, -0.0387778554029656, -0.005578411045380245, 0.024560103136938415, 0.035763976497856016, 0.00519301133682494, -0.011197722935551954, -0.028458375071271136, -0.018520779558156883, 0.01820803589320333]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.004563347828742782, -0.029157862343032342, -0.08398008136495755, -0.14890205679717453, 0.10758398090127577, 0.008461551516553088, 0.06446825907733719, 0.02924331873070915, -0.03437731662628275, -0.033306887663244286, -0.04615658707178746, 0.008632468998117003, 0.030523634759955294, 0.06434590106243385, 0.005502725677779124, -0.02552739953900178, -0.03186842777327899, -0.04547553722239749, 0.007617934287380773]</t>
-  </si>
-  <si>
-    <t>[1.0, -0.0015733617629557183, -0.04096212196278763, -0.1000725705565062, -0.14242130076641904, 0.0880792502859544, 0.015120984945193872, 0.05011289975260686, 0.019286623595875716, -0.026208919929319886, -0.018382502948047892, -0.05052885090956376, 0.002721036833017771, 0.03214537129626974, 0.055794106813332356, 0.011196353667920367, -0.015771916572401526, -0.03948987199727855, -0.03975363283362625, 0.010914678983906302]</t>
+    <t>[1.0, -0.06444024912362192, -0.020955216777585068, -0.053865392406555766, -0.09923453127764421, 0.2473851303587318, -0.037608816529625916, 0.039751540735715546, 0.022015506742874995, -0.04615675187183926, -0.0567236447929427, -0.0399447574818361, -0.005714901517733225, 0.024593723414622595, 0.035600946577843705, 0.00695609280847492, -0.010776730242895282, -0.025488118335514807, -0.018478019367355165, 0.022381774258670592]</t>
+  </si>
+  <si>
+    <t>[1.0, -0.04530717739393527, -0.012199268730498106, -0.046184611898848246, -0.06675224375725772, 0.18165127664149253, -0.033599963012538266, 0.026680636043106314, 0.004060321154986111, -0.0405204665182707, -0.03726272973584698, -0.02938560324023415, -0.019407014705202834, 0.030034254889277797, 0.028678311106904067, 0.0027082489375989537, -0.004082263094791631, -0.019461228851109628, -0.00381435239057834, 0.01775468732643011]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.005220347397927525</v>
+        <v>-0.9335904046783494</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7912315524346011</v>
+        <v>0.8054165087168166</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.09959803244360756</v>
+        <v>53093.55241370312</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.1706546559321456</v>
+        <v>-25.7716308955992</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.5897537540583748</v>
+        <v>0.8150208989744211</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.0585646495389776</v>
+        <v>72890.23567939775</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.1663742583881819</v>
+        <v>20.50126654294485</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.6065533673307588</v>
+        <v>0.8239600773612403</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.05810946862320007</v>
+        <v>19471.53473012591</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>8.639992074846803E-05</v>
+        <v>0.003833604654296428</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1078399996061556</v>
+        <v>0.200651088789857</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.03022379433042061</v>
+        <v>0.1723440371158349</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.8276560125101694</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0005121502556449774</v>
+        <v>-0.09503409356902032</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1079546141963773</v>
+        <v>0.2414968174470326</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.01364576403681271</v>
+        <v>0.1040083720951872</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.8184187314247282</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.03099703150552939</v>
+        <v>0.1551482674415018</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.005579818402829599</v>
+        <v>-0.00469499547455669</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.09699654302664527</v>
+        <v>0.168186338742623</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.008215063063406389</v>
+        <v>0.1545037286681763</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>5.030001455084255E-12</v>
+        <v>0.8356458734655779</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.03526476092159667</v>
+        <v>0.01970464452165983</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7909662092553001</v>
+        <v>0.8094833226602565</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/gasoil-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/gasoil-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.3584453424327151, 0.37930025599873984, 0.3510771181268938, 0.335221735811094, 0.5356913162204199, 0.23728150865475217, 0.28725459481259835, 0.24998707665642506, 0.24648087882497297, 0.2402098674124782, 0.25970392829889355, 0.2688381466271559, 0.2638332863759762, 0.2663104083545547, 0.25820451953065354, 0.2749460172287829, 0.26189166406091174, 0.24618896377493396, 0.2625179666369773]</t>
+    <t>[0.9999999999999999, 0.35844534243271514, 0.37930025599874, 0.3510771181268936, 0.335221735811094, 0.5356913162204203, 0.23728150865475234, 0.28725459481259813, 0.24998707665642503, 0.24648087882497313, 0.24020986741247802, 0.2597039282988934, 0.2688381466271559, 0.2638332863759762, 0.26631040835455444, 0.2582045195306534, 0.2749460172287829, 0.26189166406091174, 0.24618896377493385, 0.2625179666369775]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.25213620269477477, 0.26134641640547895, 0.25330501644533654, 0.27716337765534316, 0.2603351933874866, 0.19531207702656486, 0.2522354391607952, 0.44812358600260743, 0.16716026892441188, 0.1813303399939047, 0.1828774983281022, 0.18553762093053155, 0.18446367684638504, 0.19437580594903203, 0.19470646957668575, 0.2000152509090146, 0.18226707284066837, 0.16929983480764305, 0.18403642452132976]</t>
+    <t>[1.0, 0.2521362026947754, 0.26134641640547934, 0.25330501644533704, 0.2771633776553435, 0.2603351933874868, 0.19531207702656483, 0.2522354391607952, 0.4481235860026071, 0.16716026892441174, 0.1813303399939047, 0.18287749832810238, 0.1855376209305315, 0.184463676846385, 0.19437580594903212, 0.19470646957668566, 0.20001525090901465, 0.18226707284066831, 0.16929983480764305, 0.18403642452132965]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, -0.06769554961986754, -0.021270611760886023, -0.055551138151386056, -0.10134888106358124, 0.2447878613960221, -0.0345535495498049, 0.04343116294860986, 0.021587830889403577, -0.04339030192318453, -0.055010180283633775, -0.0387778554029656, -0.005578411045380245, 0.024560103136938415, 0.035763976497856016, 0.00519301133682494, -0.011197722935551954, -0.028458375071271136, -0.018520779558156883, 0.01820803589320333]</t>
+    <t>[1.0, -0.0676951875222869, -0.021270318316107664, -0.055550908641360926, -0.10134865692436706, 0.24478801749925666, -0.03455339756318672, 0.04343123989434575, 0.021587835192500578, -0.04339027931593715, -0.055010160311474564, -0.0387778601499101, -0.00557843078366583, 0.024560070893099313, 0.03576392565542367, 0.005192974698684266, -0.011197751321589825, -0.02845842335774611, -0.018520808091206487, 0.018207988524960434]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, -0.06444024912362192, -0.020955216777585068, -0.053865392406555766, -0.09923453127764421, 0.2473851303587318, -0.037608816529625916, 0.039751540735715546, 0.022015506742874995, -0.04615675187183926, -0.0567236447929427, -0.0399447574818361, -0.005714901517733225, 0.024593723414622595, 0.035600946577843705, 0.00695609280847492, -0.010776730242895282, -0.025488118335514807, -0.018478019367355165, 0.022381774258670592]</t>
-  </si>
-  <si>
-    <t>[1.0, -0.04530717739393527, -0.012199268730498106, -0.046184611898848246, -0.06675224375725772, 0.18165127664149253, -0.033599963012538266, 0.026680636043106314, 0.004060321154986111, -0.0405204665182707, -0.03726272973584698, -0.02938560324023415, -0.019407014705202834, 0.030034254889277797, 0.028678311106904067, 0.0027082489375989537, -0.004082263094791631, -0.019461228851109628, -0.00381435239057834, 0.01775468732643011]</t>
+    <t>[1.0, -0.06444237228028435, -0.02095633913899091, -0.053866598765376444, -0.09923598867261288, 0.24738487428433711, -0.037608233487907726, 0.039752588756623505, 0.022015776268021713, -0.04615619125779676, -0.056723487270131816, -0.03994458269506658, -0.005714788776238221, 0.024594060504390714, 0.03560140102669108, 0.00695601299465513, -0.010776676053445544, -0.02548864372136834, -0.018477973327412498, 0.02238108454726596]</t>
+  </si>
+  <si>
+    <t>[0.9999999999999999, -0.04530818905539773, -0.01220013518375287, -0.046185270925830885, -0.06675323088939748, 0.18164980185276372, -0.033599756655827956, 0.026680799039194597, 0.004060581178723175, -0.04052003827607417, -0.037262896865763236, -0.029385811710607983, -0.01940668891265958, 0.030034915006169678, 0.02867863633438338, 0.002708188545798583, -0.004082012398154308, -0.019460937495736342, -0.0038138331514769347, 0.017754376165456453]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.9335904046783494</v>
+        <v>-0.9335904046783519</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8054165087168166</v>
+        <v>0.8054165087168167</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>53093.55241370312</v>
+        <v>53093.55241370311</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9011646207113629</v>
+        <v>0.4740066225165563</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-25.7716308955992</v>
+        <v>-25.77163089559928</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.8150208989744211</v>
+        <v>0.8150208989744203</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>20.50126654294485</v>
+        <v>20.50126654294492</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.8239600773612403</v>
+        <v>0.8239600773612401</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.003833604654296428</v>
+        <v>0.003833531931307692</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.200651088789857</v>
+        <v>0.200649429009108</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1723440371158349</v>
+        <v>0.1723429882119555</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8276560125101694</v>
+        <v>0.8276570283236103</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.09503409356902032</v>
+        <v>-0.09501162070381426</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.2414968174470326</v>
+        <v>0.2414868303914236</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1040083720951872</v>
+        <v>0.1040194938511321</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8184187314247282</v>
+        <v>0.8184190566017168</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.1551482674415018</v>
+        <v>0.1551222235803613</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.00469499547455669</v>
+        <v>-0.004644945180362102</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.168186338742623</v>
+        <v>0.1681926524004428</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1545037286681763</v>
+        <v>0.15450825085946</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8356458734655779</v>
+        <v>0.8356423443233569</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01970464452165983</v>
+        <v>0.01970338222136007</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.8094833226602565</v>
+        <v>0.8094816548703764</v>
       </c>
     </row>
   </sheetData>
